--- a/db_structure/014. Material Receipt.xlsx
+++ b/db_structure/014. Material Receipt.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,6 +461,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -496,6 +513,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -674,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,7 +762,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -742,7 +776,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
@@ -756,7 +790,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
@@ -790,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>

--- a/db_structure/014. Material Receipt.xlsx
+++ b/db_structure/014. Material Receipt.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1DFC9EC2-22D0-4940-85F9-CDED6E742A0C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>Document Number</t>
   </si>
@@ -306,12 +307,18 @@
   </si>
   <si>
     <t>risd_gnrs_id</t>
+  </si>
+  <si>
+    <t>Ner Version Mysql</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,13 +374,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,11 +719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,9 +733,10 @@
     <col min="4" max="4" width="39.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -730,14 +745,14 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -746,7 +761,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -759,8 +774,11 @@
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>133</v>
       </c>
@@ -773,8 +791,11 @@
       <c r="F7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>134</v>
       </c>
@@ -787,8 +808,11 @@
       <c r="F8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>135</v>
       </c>
@@ -801,17 +825,20 @@
       <c r="F9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
   </sheetData>
@@ -821,11 +848,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,37 +1221,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="D29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="4" t="s">
         <v>38</v>
       </c>
     </row>
